--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_16.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3765980.215872129</v>
+        <v>3765980.21587213</v>
       </c>
     </row>
     <row r="11">
@@ -1373,25 +1373,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>63.54393718438524</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>22.1246438066087</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>34.10292514811664</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>21.14967429983947</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>63.54393718438524</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>63.54393718438524</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>55.96949987200645</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>63.54393718438524</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>63.54393718438524</v>
+        <v>17.23079022205104</v>
       </c>
       <c r="G12" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1613,22 +1613,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>55.25259944795577</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>63.54393718438524</v>
+        <v>22.1246438066087</v>
       </c>
       <c r="G14" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="H14" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>59.82321565059355</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>38.73870964995511</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.95151175584309</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>63.54393718438524</v>
+        <v>55.96949987200611</v>
       </c>
       <c r="S15" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1856,16 +1856,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>51.56565584287694</v>
+        <v>51.56565584287716</v>
       </c>
       <c r="H17" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="I17" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="J17" t="n">
-        <v>33.12795564134782</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>17.23079022205138</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>63.54393718438524</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>63.54393718438524</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>63.54393718438524</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>38.73870964995511</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>35.01798811616327</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2084,22 +2084,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>75.67415048633345</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>75.67415048633345</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>75.67415048633345</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.63960365659015</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>42.6396036565903</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2163,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>66.65379174836258</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="G21" t="n">
-        <v>66.65379174836249</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>75.67415048633345</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>75.67415048633345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>75.67415048633345</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>75.67415048633356</v>
       </c>
     </row>
     <row r="22">
@@ -2318,22 +2318,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>81.55904985996256</v>
+        <v>30.75269541179689</v>
       </c>
       <c r="D23" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>30.75269541179667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>50.88569936081203</v>
       </c>
       <c r="D24" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="X24" t="n">
-        <v>71.83721111665498</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>30.7526954117969</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="G26" t="n">
-        <v>30.75269541179667</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="D27" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>71.8372111166551</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2676,13 +2676,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.95151175584309</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>50.88569936081193</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2801,19 +2801,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>78.20882012364258</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>79.18378963041179</v>
       </c>
       <c r="H29" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>34.10292514811664</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>71.8372111166551</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="V30" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="X30" t="n">
-        <v>71.83721111665498</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="Y30" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3041,16 +3041,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>30.75269541179667</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>30.75269541179689</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>71.8372111166551</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>38.73870964995511</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,22 +3150,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.95151175584309</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>81.55904985996256</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="T33" t="n">
-        <v>12.1469897108568</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>55.25259944795652</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>55.25259944795619</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3357,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3387,19 +3387,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.95151175584309</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>63.54393718438487</v>
+        <v>55.96949987200628</v>
       </c>
       <c r="U36" t="n">
-        <v>35.0179881161631</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>55.25259944795619</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="X38" t="n">
-        <v>63.54393718438487</v>
+        <v>55.25259944795652</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>35.0179881161631</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.95151175584309</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="Y39" t="n">
-        <v>63.54393718438487</v>
+        <v>55.9694998720063</v>
       </c>
     </row>
     <row r="40">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3752,16 +3752,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>22.12464380660845</v>
       </c>
       <c r="W41" t="n">
-        <v>55.25259944795619</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3825,19 +3825,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>55.9694998720062</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>63.54393718438487</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>55.96949987200652</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>51.41372388243672</v>
+        <v>45.2852079956502</v>
       </c>
       <c r="D44" t="n">
-        <v>51.41372388243672</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.18228284753361</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>34.10292514811664</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="W44" t="n">
-        <v>51.41372388243672</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>51.41372388243666</v>
       </c>
     </row>
     <row r="45">
@@ -4056,19 +4056,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>51.41372388243672</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>51.41372388243672</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>45.28520799565025</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>51.41372388243672</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>45.2852079956502</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69.26931011049351</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="C11" t="n">
-        <v>69.26931011049351</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="D11" t="n">
-        <v>5.08351497475082</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="E11" t="n">
-        <v>5.08351497475082</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="F11" t="n">
-        <v>5.08351497475082</v>
+        <v>231.1034818378843</v>
       </c>
       <c r="G11" t="n">
-        <v>5.08351497475082</v>
+        <v>166.9176867021421</v>
       </c>
       <c r="H11" t="n">
-        <v>5.08351497475082</v>
+        <v>102.7318915663999</v>
       </c>
       <c r="I11" t="n">
-        <v>5.08351497475082</v>
+        <v>38.54609643065762</v>
       </c>
       <c r="J11" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="K11" t="n">
-        <v>6.668317430639813</v>
+        <v>6.668317430639862</v>
       </c>
       <c r="L11" t="n">
-        <v>45.53616687292853</v>
+        <v>45.5361668729287</v>
       </c>
       <c r="M11" t="n">
-        <v>108.4446646854699</v>
+        <v>108.4446646854697</v>
       </c>
       <c r="N11" t="n">
-        <v>171.3531624980113</v>
+        <v>171.3531624980106</v>
       </c>
       <c r="O11" t="n">
-        <v>234.2616603105527</v>
+        <v>234.2616603105516</v>
       </c>
       <c r="P11" t="n">
-        <v>253.4516068950659</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="Q11" t="n">
-        <v>219.0042077555541</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="R11" t="n">
-        <v>197.6409003819789</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="S11" t="n">
-        <v>197.6409003819789</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="T11" t="n">
-        <v>197.6409003819789</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="U11" t="n">
-        <v>197.6409003819789</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="V11" t="n">
-        <v>133.4551052462362</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="W11" t="n">
-        <v>69.26931011049351</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="X11" t="n">
-        <v>69.26931011049351</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="Y11" t="n">
-        <v>69.26931011049351</v>
+        <v>253.4516068950649</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>254.175748737541</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="C12" t="n">
-        <v>254.175748737541</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="D12" t="n">
-        <v>197.6409003819789</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="E12" t="n">
-        <v>133.4551052462362</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="F12" t="n">
-        <v>69.26931011049351</v>
+        <v>236.7709101294069</v>
       </c>
       <c r="G12" t="n">
-        <v>5.08351497475082</v>
+        <v>172.5851149936646</v>
       </c>
       <c r="H12" t="n">
-        <v>5.08351497475082</v>
+        <v>108.3993198579224</v>
       </c>
       <c r="I12" t="n">
-        <v>5.08351497475082</v>
+        <v>44.21352472218016</v>
       </c>
       <c r="J12" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="K12" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="L12" t="n">
-        <v>67.99201278729221</v>
+        <v>67.99201278729174</v>
       </c>
       <c r="M12" t="n">
-        <v>84.71125023088882</v>
+        <v>130.9005105998327</v>
       </c>
       <c r="N12" t="n">
-        <v>147.6197480434302</v>
+        <v>193.8090084123737</v>
       </c>
       <c r="O12" t="n">
-        <v>210.5282458559716</v>
+        <v>210.5282458559698</v>
       </c>
       <c r="P12" t="n">
-        <v>254.175748737541</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="Q12" t="n">
-        <v>254.175748737541</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="R12" t="n">
-        <v>254.175748737541</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="S12" t="n">
-        <v>254.175748737541</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="T12" t="n">
-        <v>254.175748737541</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="U12" t="n">
-        <v>254.175748737541</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="V12" t="n">
-        <v>254.175748737541</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="W12" t="n">
-        <v>254.175748737541</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="X12" t="n">
-        <v>254.175748737541</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="Y12" t="n">
-        <v>254.175748737541</v>
+        <v>254.1757487375392</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="C13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="D13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="E13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="F13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="G13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="H13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="I13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="J13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="K13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="L13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="M13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="N13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="O13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="P13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="R13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="S13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="T13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="U13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="V13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="W13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="X13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>253.4516068950655</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="C14" t="n">
-        <v>253.4516068950655</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="D14" t="n">
-        <v>253.4516068950655</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="E14" t="n">
-        <v>197.6409003819789</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="F14" t="n">
-        <v>133.4551052462362</v>
+        <v>231.1034818378843</v>
       </c>
       <c r="G14" t="n">
-        <v>69.26931011049351</v>
+        <v>166.9176867021421</v>
       </c>
       <c r="H14" t="n">
-        <v>5.08351497475082</v>
+        <v>102.7318915663999</v>
       </c>
       <c r="I14" t="n">
-        <v>5.08351497475082</v>
+        <v>38.54609643065762</v>
       </c>
       <c r="J14" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="K14" t="n">
-        <v>6.668317430639813</v>
+        <v>6.668317430639862</v>
       </c>
       <c r="L14" t="n">
-        <v>45.53616687292853</v>
+        <v>45.5361668729287</v>
       </c>
       <c r="M14" t="n">
-        <v>108.4446646854699</v>
+        <v>108.4446646854697</v>
       </c>
       <c r="N14" t="n">
-        <v>171.3531624980113</v>
+        <v>171.3531624980106</v>
       </c>
       <c r="O14" t="n">
-        <v>234.2616603105523</v>
+        <v>234.2616603105516</v>
       </c>
       <c r="P14" t="n">
-        <v>253.4516068950655</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="Q14" t="n">
-        <v>253.4516068950655</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="R14" t="n">
-        <v>253.4516068950655</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="S14" t="n">
-        <v>253.4516068950655</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="T14" t="n">
-        <v>253.4516068950655</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="U14" t="n">
-        <v>253.4516068950655</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="V14" t="n">
-        <v>253.4516068950655</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="W14" t="n">
-        <v>253.4516068950655</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="X14" t="n">
-        <v>253.4516068950655</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="Y14" t="n">
-        <v>253.4516068950655</v>
+        <v>253.4516068950649</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>104.6410152783353</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="C15" t="n">
-        <v>104.6410152783353</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="D15" t="n">
-        <v>104.6410152783353</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="E15" t="n">
-        <v>104.6410152783353</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="F15" t="n">
-        <v>104.6410152783353</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="G15" t="n">
-        <v>104.6410152783353</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="H15" t="n">
-        <v>104.6410152783353</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="I15" t="n">
-        <v>44.21352472218023</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="J15" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="K15" t="n">
-        <v>17.68982094703747</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="L15" t="n">
-        <v>80.59831875957886</v>
+        <v>67.99201278729174</v>
       </c>
       <c r="M15" t="n">
-        <v>143.5068165721202</v>
+        <v>84.71125023088791</v>
       </c>
       <c r="N15" t="n">
-        <v>206.4153143846616</v>
+        <v>147.6197480434289</v>
       </c>
       <c r="O15" t="n">
-        <v>210.5282458559716</v>
+        <v>210.5282458559698</v>
       </c>
       <c r="P15" t="n">
-        <v>254.175748737541</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0126055498207</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="R15" t="n">
-        <v>168.826810414078</v>
+        <v>197.6409003819775</v>
       </c>
       <c r="S15" t="n">
-        <v>104.6410152783353</v>
+        <v>133.4551052462353</v>
       </c>
       <c r="T15" t="n">
-        <v>104.6410152783353</v>
+        <v>69.26931011049302</v>
       </c>
       <c r="U15" t="n">
-        <v>104.6410152783353</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="V15" t="n">
-        <v>104.6410152783353</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="W15" t="n">
-        <v>104.6410152783353</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="X15" t="n">
-        <v>104.6410152783353</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="Y15" t="n">
-        <v>104.6410152783353</v>
+        <v>5.083514974750785</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="C16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="D16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="E16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="F16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="G16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="H16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="I16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="J16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="K16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="L16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="M16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="N16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="O16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="P16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="R16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="S16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="T16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="U16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="V16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="W16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="X16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750785</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.0042077555541</v>
+        <v>219.0042077555537</v>
       </c>
       <c r="C17" t="n">
-        <v>219.0042077555541</v>
+        <v>219.0042077555537</v>
       </c>
       <c r="D17" t="n">
-        <v>219.0042077555541</v>
+        <v>219.0042077555537</v>
       </c>
       <c r="E17" t="n">
-        <v>219.0042077555541</v>
+        <v>219.0042077555537</v>
       </c>
       <c r="F17" t="n">
-        <v>219.0042077555541</v>
+        <v>219.0042077555537</v>
       </c>
       <c r="G17" t="n">
-        <v>166.9176867021431</v>
+        <v>166.9176867021424</v>
       </c>
       <c r="H17" t="n">
-        <v>102.7318915664004</v>
+        <v>102.7318915664</v>
       </c>
       <c r="I17" t="n">
-        <v>38.54609643065771</v>
+        <v>38.54609643065763</v>
       </c>
       <c r="J17" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K17" t="n">
-        <v>6.668317430639813</v>
+        <v>6.668317430639877</v>
       </c>
       <c r="L17" t="n">
-        <v>45.53616687292853</v>
+        <v>45.53616687292871</v>
       </c>
       <c r="M17" t="n">
-        <v>108.4446646854699</v>
+        <v>108.4446646854698</v>
       </c>
       <c r="N17" t="n">
-        <v>171.3531624980113</v>
+        <v>171.353162498011</v>
       </c>
       <c r="O17" t="n">
-        <v>234.2616603105527</v>
+        <v>234.2616603105521</v>
       </c>
       <c r="P17" t="n">
-        <v>253.4516068950659</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="Q17" t="n">
-        <v>219.0042077555541</v>
+        <v>219.0042077555537</v>
       </c>
       <c r="R17" t="n">
-        <v>219.0042077555541</v>
+        <v>219.0042077555537</v>
       </c>
       <c r="S17" t="n">
-        <v>219.0042077555541</v>
+        <v>219.0042077555537</v>
       </c>
       <c r="T17" t="n">
-        <v>219.0042077555541</v>
+        <v>219.0042077555537</v>
       </c>
       <c r="U17" t="n">
-        <v>219.0042077555541</v>
+        <v>219.0042077555537</v>
       </c>
       <c r="V17" t="n">
-        <v>219.0042077555541</v>
+        <v>219.0042077555537</v>
       </c>
       <c r="W17" t="n">
-        <v>219.0042077555541</v>
+        <v>219.0042077555537</v>
       </c>
       <c r="X17" t="n">
-        <v>219.0042077555541</v>
+        <v>219.0042077555537</v>
       </c>
       <c r="Y17" t="n">
-        <v>219.0042077555541</v>
+        <v>219.0042077555537</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>254.175748737541</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="C18" t="n">
-        <v>254.175748737541</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="D18" t="n">
-        <v>254.175748737541</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="E18" t="n">
-        <v>254.175748737541</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="F18" t="n">
-        <v>236.7709101294083</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="G18" t="n">
-        <v>172.5851149936656</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="H18" t="n">
-        <v>108.3993198579229</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I18" t="n">
-        <v>44.21352472218023</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J18" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K18" t="n">
-        <v>17.68982094703747</v>
+        <v>17.6898209470375</v>
       </c>
       <c r="L18" t="n">
-        <v>80.59831875957886</v>
+        <v>80.59831875957863</v>
       </c>
       <c r="M18" t="n">
-        <v>143.5068165721202</v>
+        <v>143.5068165721198</v>
       </c>
       <c r="N18" t="n">
-        <v>147.6197480434302</v>
+        <v>206.4153143846609</v>
       </c>
       <c r="O18" t="n">
-        <v>210.5282458559716</v>
+        <v>210.5282458559705</v>
       </c>
       <c r="P18" t="n">
-        <v>254.175748737541</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Q18" t="n">
-        <v>254.175748737541</v>
+        <v>233.0126055498197</v>
       </c>
       <c r="R18" t="n">
-        <v>254.175748737541</v>
+        <v>233.0126055498197</v>
       </c>
       <c r="S18" t="n">
-        <v>254.175748737541</v>
+        <v>233.0126055498197</v>
       </c>
       <c r="T18" t="n">
-        <v>254.175748737541</v>
+        <v>168.8268104140773</v>
       </c>
       <c r="U18" t="n">
-        <v>254.175748737541</v>
+        <v>104.6410152783349</v>
       </c>
       <c r="V18" t="n">
-        <v>254.175748737541</v>
+        <v>40.45522014259248</v>
       </c>
       <c r="W18" t="n">
-        <v>254.175748737541</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="X18" t="n">
-        <v>254.175748737541</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="Y18" t="n">
-        <v>254.175748737541</v>
+        <v>5.083514974750799</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="C19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="D19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="E19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="F19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="G19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="H19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="L19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="M19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="N19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="O19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="P19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="R19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="S19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="T19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="U19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="V19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="W19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="X19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.08351497475082</v>
+        <v>5.083514974750799</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>278.4398462970789</v>
+        <v>82.49246788368806</v>
       </c>
       <c r="C20" t="n">
-        <v>278.4398462970789</v>
+        <v>82.49246788368806</v>
       </c>
       <c r="D20" t="n">
-        <v>278.4398462970789</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="E20" t="n">
-        <v>278.4398462970789</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="F20" t="n">
-        <v>202.0013104522976</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="G20" t="n">
-        <v>125.5627746075164</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="H20" t="n">
-        <v>49.1242387627351</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="I20" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="J20" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="K20" t="n">
-        <v>7.638734494795669</v>
+        <v>7.638734494795762</v>
       </c>
       <c r="L20" t="n">
-        <v>46.50658393708439</v>
+        <v>46.5065839370846</v>
       </c>
       <c r="M20" t="n">
-        <v>121.4239929185545</v>
+        <v>121.4239929185548</v>
       </c>
       <c r="N20" t="n">
-        <v>196.3414019000246</v>
+        <v>196.341401900025</v>
       </c>
       <c r="O20" t="n">
-        <v>259.2498997125657</v>
+        <v>259.2498997125662</v>
       </c>
       <c r="P20" t="n">
-        <v>278.4398462970789</v>
+        <v>278.4398462970794</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.4398462970789</v>
+        <v>278.4398462970794</v>
       </c>
       <c r="R20" t="n">
-        <v>278.4398462970789</v>
+        <v>278.4398462970794</v>
       </c>
       <c r="S20" t="n">
-        <v>278.4398462970789</v>
+        <v>235.3695395732508</v>
       </c>
       <c r="T20" t="n">
-        <v>278.4398462970789</v>
+        <v>158.9310037284694</v>
       </c>
       <c r="U20" t="n">
-        <v>278.4398462970789</v>
+        <v>82.49246788368806</v>
       </c>
       <c r="V20" t="n">
-        <v>278.4398462970789</v>
+        <v>82.49246788368806</v>
       </c>
       <c r="W20" t="n">
-        <v>278.4398462970789</v>
+        <v>82.49246788368806</v>
       </c>
       <c r="X20" t="n">
-        <v>278.4398462970789</v>
+        <v>82.49246788368806</v>
       </c>
       <c r="Y20" t="n">
-        <v>278.4398462970789</v>
+        <v>82.49246788368806</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.38099441099001</v>
+        <v>226.2580661005529</v>
       </c>
       <c r="C21" t="n">
-        <v>73.38099441099001</v>
+        <v>226.2580661005529</v>
       </c>
       <c r="D21" t="n">
-        <v>73.38099441099001</v>
+        <v>158.9310037284694</v>
       </c>
       <c r="E21" t="n">
-        <v>73.38099441099001</v>
+        <v>82.49246788368806</v>
       </c>
       <c r="F21" t="n">
-        <v>73.38099441099001</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="G21" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="H21" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="I21" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="J21" t="n">
-        <v>6.053932038906676</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="K21" t="n">
-        <v>18.66023801119332</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="L21" t="n">
-        <v>34.29687211935411</v>
+        <v>34.29687211935416</v>
       </c>
       <c r="M21" t="n">
-        <v>109.2142811008242</v>
+        <v>109.2142811008244</v>
       </c>
       <c r="N21" t="n">
-        <v>184.1316900822943</v>
+        <v>184.1316900822946</v>
       </c>
       <c r="O21" t="n">
-        <v>259.0490990637644</v>
+        <v>259.0490990637648</v>
       </c>
       <c r="P21" t="n">
-        <v>302.6966019453338</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="Q21" t="n">
-        <v>302.6966019453338</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="R21" t="n">
-        <v>302.6966019453338</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="S21" t="n">
-        <v>226.2580661005525</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="T21" t="n">
-        <v>226.2580661005525</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="U21" t="n">
-        <v>226.2580661005525</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="V21" t="n">
-        <v>226.2580661005525</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="W21" t="n">
-        <v>149.8195302557713</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="X21" t="n">
-        <v>73.38099441099001</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="Y21" t="n">
-        <v>73.38099441099001</v>
+        <v>226.2580661005529</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="C22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="D22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="E22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="F22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="G22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="H22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="I22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="J22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="K22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="L22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="M22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="N22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="O22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="P22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="R22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="S22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="T22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="U22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="V22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="W22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="X22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.053932038906676</v>
+        <v>302.6966019453342</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>284.736688626862</v>
+        <v>37.58805268758175</v>
       </c>
       <c r="C23" t="n">
-        <v>202.3538099804352</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="D23" t="n">
-        <v>119.9709313340084</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="E23" t="n">
-        <v>119.9709313340084</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F23" t="n">
-        <v>37.58805268758152</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G23" t="n">
-        <v>37.58805268758152</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H23" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I23" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J23" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K23" t="n">
-        <v>8.109526444685999</v>
+        <v>8.109526444686091</v>
       </c>
       <c r="L23" t="n">
-        <v>46.97737588697472</v>
+        <v>46.97737588697493</v>
       </c>
       <c r="M23" t="n">
-        <v>121.8947848684448</v>
+        <v>121.8947848684451</v>
       </c>
       <c r="N23" t="n">
-        <v>202.6382442298078</v>
+        <v>202.6382442298082</v>
       </c>
       <c r="O23" t="n">
-        <v>265.5467420423488</v>
+        <v>265.5467420423493</v>
       </c>
       <c r="P23" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="Q23" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="R23" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="S23" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="T23" t="n">
-        <v>284.736688626862</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="U23" t="n">
-        <v>284.736688626862</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="V23" t="n">
-        <v>284.736688626862</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="W23" t="n">
-        <v>284.736688626862</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="X23" t="n">
-        <v>284.736688626862</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="Y23" t="n">
-        <v>284.736688626862</v>
+        <v>37.58805268758175</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>253.6733599280775</v>
+        <v>57.92442031284958</v>
       </c>
       <c r="C24" t="n">
-        <v>253.6733599280775</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="D24" t="n">
-        <v>171.2904812816507</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="E24" t="n">
-        <v>88.90760263522384</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F24" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G24" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H24" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I24" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J24" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K24" t="n">
-        <v>6.524723988797005</v>
+        <v>19.13102996108372</v>
       </c>
       <c r="L24" t="n">
-        <v>69.79799923847418</v>
+        <v>42.62993867630078</v>
       </c>
       <c r="M24" t="n">
-        <v>150.5414585998371</v>
+        <v>123.3733980376638</v>
       </c>
       <c r="N24" t="n">
-        <v>231.2849179612</v>
+        <v>204.1168573990269</v>
       </c>
       <c r="O24" t="n">
-        <v>282.5886965582808</v>
+        <v>282.5886965582812</v>
       </c>
       <c r="P24" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.2361994398502</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="R24" t="n">
-        <v>326.2361994398502</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="S24" t="n">
-        <v>326.2361994398502</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="T24" t="n">
-        <v>326.2361994398502</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="U24" t="n">
-        <v>326.2361994398502</v>
+        <v>222.6901776057035</v>
       </c>
       <c r="V24" t="n">
-        <v>326.2361994398502</v>
+        <v>222.6901776057035</v>
       </c>
       <c r="W24" t="n">
-        <v>326.2361994398502</v>
+        <v>140.3072989592765</v>
       </c>
       <c r="X24" t="n">
-        <v>253.6733599280775</v>
+        <v>140.3072989592765</v>
       </c>
       <c r="Y24" t="n">
-        <v>253.6733599280775</v>
+        <v>140.3072989592765</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="C25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="D25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="E25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="L25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="M25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="N25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="O25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="P25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="R25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="S25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="T25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="U25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="V25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="W25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="X25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>37.58805268758152</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="C26" t="n">
-        <v>37.58805268758152</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="D26" t="n">
-        <v>37.58805268758152</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="E26" t="n">
-        <v>37.58805268758152</v>
+        <v>253.6733599280778</v>
       </c>
       <c r="F26" t="n">
-        <v>37.58805268758152</v>
+        <v>171.2904812816509</v>
       </c>
       <c r="G26" t="n">
-        <v>6.524723988797005</v>
+        <v>88.90760263522395</v>
       </c>
       <c r="H26" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I26" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J26" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K26" t="n">
-        <v>8.109526444685999</v>
+        <v>8.109526444686091</v>
       </c>
       <c r="L26" t="n">
-        <v>46.97737588697472</v>
+        <v>46.97737588697493</v>
       </c>
       <c r="M26" t="n">
-        <v>121.8947848684448</v>
+        <v>121.8947848684451</v>
       </c>
       <c r="N26" t="n">
-        <v>202.6382442298078</v>
+        <v>202.6382442298082</v>
       </c>
       <c r="O26" t="n">
-        <v>265.5467420423488</v>
+        <v>265.5467420423493</v>
       </c>
       <c r="P26" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="Q26" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="R26" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="S26" t="n">
-        <v>202.3538099804352</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="T26" t="n">
-        <v>202.3538099804352</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="U26" t="n">
-        <v>202.3538099804352</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="V26" t="n">
-        <v>202.3538099804352</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="W26" t="n">
-        <v>202.3538099804352</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="X26" t="n">
-        <v>119.9709313340084</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="Y26" t="n">
-        <v>119.9709313340084</v>
+        <v>284.7366886268626</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>88.90760263522384</v>
+        <v>243.8533207934237</v>
       </c>
       <c r="C27" t="n">
-        <v>88.90760263522384</v>
+        <v>161.4704421469968</v>
       </c>
       <c r="D27" t="n">
-        <v>6.524723988797005</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="E27" t="n">
-        <v>6.524723988797005</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="F27" t="n">
-        <v>6.524723988797005</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="G27" t="n">
-        <v>6.524723988797005</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="H27" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I27" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J27" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K27" t="n">
-        <v>19.13102996108365</v>
+        <v>19.13102996108372</v>
       </c>
       <c r="L27" t="n">
-        <v>82.40430521076082</v>
+        <v>82.40430521076098</v>
       </c>
       <c r="M27" t="n">
-        <v>163.1477645721237</v>
+        <v>123.3733980376638</v>
       </c>
       <c r="N27" t="n">
-        <v>204.1168573990266</v>
+        <v>204.1168573990269</v>
       </c>
       <c r="O27" t="n">
-        <v>282.5886965582808</v>
+        <v>282.5886965582812</v>
       </c>
       <c r="P27" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q27" t="n">
-        <v>305.07305625213</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R27" t="n">
-        <v>222.6901776057031</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S27" t="n">
-        <v>171.2904812816507</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="T27" t="n">
-        <v>171.2904812816507</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="U27" t="n">
-        <v>171.2904812816507</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="V27" t="n">
-        <v>171.2904812816507</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="W27" t="n">
-        <v>171.2904812816507</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="X27" t="n">
-        <v>171.2904812816507</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Y27" t="n">
-        <v>88.90760263522384</v>
+        <v>326.2361994398507</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="C28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="D28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="E28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="F28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="G28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="H28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="I28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="J28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="K28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="L28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="M28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="N28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="O28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="P28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="T28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="U28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="V28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="W28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="X28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>167.9064108409234</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="C29" t="n">
-        <v>167.9064108409234</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="D29" t="n">
-        <v>167.9064108409234</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="E29" t="n">
-        <v>167.9064108409234</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="F29" t="n">
-        <v>88.90760263522384</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="G29" t="n">
-        <v>88.90760263522384</v>
+        <v>204.7530627375577</v>
       </c>
       <c r="H29" t="n">
-        <v>6.524723988797005</v>
+        <v>122.3701840911308</v>
       </c>
       <c r="I29" t="n">
-        <v>6.524723988797005</v>
+        <v>39.98730544470385</v>
       </c>
       <c r="J29" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K29" t="n">
-        <v>8.109526444685999</v>
+        <v>8.109526444686091</v>
       </c>
       <c r="L29" t="n">
-        <v>46.97737588697472</v>
+        <v>46.97737588697493</v>
       </c>
       <c r="M29" t="n">
-        <v>121.8947848684448</v>
+        <v>121.8947848684451</v>
       </c>
       <c r="N29" t="n">
-        <v>202.6382442298078</v>
+        <v>202.6382442298082</v>
       </c>
       <c r="O29" t="n">
-        <v>265.5467420423488</v>
+        <v>265.5467420423493</v>
       </c>
       <c r="P29" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.2892894873503</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="R29" t="n">
-        <v>250.2892894873503</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="S29" t="n">
-        <v>250.2892894873503</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="T29" t="n">
-        <v>167.9064108409234</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="U29" t="n">
-        <v>167.9064108409234</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="V29" t="n">
-        <v>167.9064108409234</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="W29" t="n">
-        <v>167.9064108409234</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="X29" t="n">
-        <v>167.9064108409234</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="Y29" t="n">
-        <v>167.9064108409234</v>
+        <v>284.7366886268626</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.90760263522384</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="C30" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="D30" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="E30" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F30" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G30" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H30" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I30" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J30" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K30" t="n">
-        <v>19.13102996108365</v>
+        <v>19.13102996108372</v>
       </c>
       <c r="L30" t="n">
-        <v>82.40430521076082</v>
+        <v>82.40430521076098</v>
       </c>
       <c r="M30" t="n">
-        <v>163.1477645721237</v>
+        <v>163.147764572124</v>
       </c>
       <c r="N30" t="n">
-        <v>204.1168573990266</v>
+        <v>204.1168573990269</v>
       </c>
       <c r="O30" t="n">
-        <v>282.5886965582808</v>
+        <v>282.5886965582812</v>
       </c>
       <c r="P30" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q30" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R30" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S30" t="n">
-        <v>326.2361994398502</v>
+        <v>253.6733599280778</v>
       </c>
       <c r="T30" t="n">
-        <v>326.2361994398502</v>
+        <v>253.6733599280778</v>
       </c>
       <c r="U30" t="n">
-        <v>326.2361994398502</v>
+        <v>171.2904812816509</v>
       </c>
       <c r="V30" t="n">
-        <v>243.8533207934234</v>
+        <v>171.2904812816509</v>
       </c>
       <c r="W30" t="n">
-        <v>243.8533207934234</v>
+        <v>88.90760263522395</v>
       </c>
       <c r="X30" t="n">
-        <v>171.2904812816507</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.90760263522384</v>
+        <v>6.524723988797014</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="C31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="D31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="E31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="F31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="G31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="H31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="I31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="J31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="K31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="L31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="M31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="N31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="O31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="P31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="T31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="U31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="V31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="W31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="X31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>37.58805268758152</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="C32" t="n">
-        <v>37.58805268758152</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="D32" t="n">
-        <v>37.58805268758152</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="E32" t="n">
-        <v>37.58805268758152</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="F32" t="n">
-        <v>37.58805268758152</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="G32" t="n">
-        <v>6.524723988797005</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="H32" t="n">
-        <v>6.524723988797005</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="I32" t="n">
-        <v>6.524723988797005</v>
+        <v>37.58805268758175</v>
       </c>
       <c r="J32" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K32" t="n">
-        <v>8.109526444685999</v>
+        <v>8.109526444686091</v>
       </c>
       <c r="L32" t="n">
-        <v>46.97737588697472</v>
+        <v>46.97737588697493</v>
       </c>
       <c r="M32" t="n">
-        <v>121.8947848684448</v>
+        <v>121.8947848684451</v>
       </c>
       <c r="N32" t="n">
-        <v>202.6382442298078</v>
+        <v>202.6382442298082</v>
       </c>
       <c r="O32" t="n">
-        <v>265.5467420423488</v>
+        <v>265.5467420423493</v>
       </c>
       <c r="P32" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="Q32" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="R32" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="S32" t="n">
-        <v>284.736688626862</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="T32" t="n">
-        <v>284.736688626862</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="U32" t="n">
-        <v>284.736688626862</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="V32" t="n">
-        <v>284.736688626862</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="W32" t="n">
-        <v>202.3538099804352</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="X32" t="n">
-        <v>119.9709313340084</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="Y32" t="n">
-        <v>37.58805268758152</v>
+        <v>202.3538099804356</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>128.0376123826533</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="C33" t="n">
-        <v>45.65473373622642</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="D33" t="n">
-        <v>45.65473373622642</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="E33" t="n">
-        <v>45.65473373622642</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F33" t="n">
-        <v>45.65473373622642</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G33" t="n">
-        <v>45.65473373622642</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H33" t="n">
-        <v>45.65473373622642</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I33" t="n">
-        <v>45.65473373622642</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J33" t="n">
-        <v>6.524723988797005</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K33" t="n">
-        <v>19.13102996108365</v>
+        <v>19.13102996108372</v>
       </c>
       <c r="L33" t="n">
-        <v>82.40430521076082</v>
+        <v>42.62993867630078</v>
       </c>
       <c r="M33" t="n">
-        <v>163.1477645721237</v>
+        <v>123.3733980376638</v>
       </c>
       <c r="N33" t="n">
-        <v>204.1168573990266</v>
+        <v>204.1168573990269</v>
       </c>
       <c r="O33" t="n">
-        <v>282.5886965582808</v>
+        <v>282.5886965582812</v>
       </c>
       <c r="P33" t="n">
-        <v>326.2361994398502</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q33" t="n">
-        <v>305.07305625213</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R33" t="n">
-        <v>222.6901776057031</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S33" t="n">
-        <v>140.3072989592763</v>
+        <v>243.8533207934237</v>
       </c>
       <c r="T33" t="n">
-        <v>128.0376123826533</v>
+        <v>243.8533207934237</v>
       </c>
       <c r="U33" t="n">
-        <v>128.0376123826533</v>
+        <v>161.4704421469968</v>
       </c>
       <c r="V33" t="n">
-        <v>128.0376123826533</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="W33" t="n">
-        <v>128.0376123826533</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="X33" t="n">
-        <v>128.0376123826533</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="Y33" t="n">
-        <v>128.0376123826533</v>
+        <v>79.08756350056984</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="C34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="D34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="E34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="F34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="G34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="H34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="I34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="J34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="K34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="L34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="M34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="N34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="O34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="P34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="T34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="U34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="V34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="W34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="X34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.524723988797005</v>
+        <v>326.2361994398507</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.08351497475079</v>
+        <v>189.265811759323</v>
       </c>
       <c r="C35" t="n">
-        <v>5.08351497475079</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="D35" t="n">
-        <v>5.08351497475079</v>
+        <v>60.89422148783819</v>
       </c>
       <c r="E35" t="n">
-        <v>5.08351497475079</v>
+        <v>60.89422148783819</v>
       </c>
       <c r="F35" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="G35" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="H35" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I35" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J35" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K35" t="n">
-        <v>6.668317430639783</v>
+        <v>6.668317430639877</v>
       </c>
       <c r="L35" t="n">
-        <v>45.5361668729285</v>
+        <v>45.53616687292871</v>
       </c>
       <c r="M35" t="n">
-        <v>108.4446646854695</v>
+        <v>108.4446646854698</v>
       </c>
       <c r="N35" t="n">
-        <v>171.3531624980105</v>
+        <v>171.353162498011</v>
       </c>
       <c r="O35" t="n">
-        <v>234.2616603105515</v>
+        <v>234.2616603105521</v>
       </c>
       <c r="P35" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="Q35" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="R35" t="n">
-        <v>189.2658117593224</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="S35" t="n">
-        <v>125.0800166235801</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="T35" t="n">
-        <v>60.89422148783785</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="U35" t="n">
-        <v>5.08351497475079</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="V35" t="n">
-        <v>5.08351497475079</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="W35" t="n">
-        <v>5.08351497475079</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="X35" t="n">
-        <v>5.08351497475079</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="Y35" t="n">
-        <v>5.08351497475079</v>
+        <v>253.4516068950654</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.08351497475079</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="C36" t="n">
-        <v>5.08351497475079</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="D36" t="n">
-        <v>5.08351497475079</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="E36" t="n">
-        <v>5.08351497475079</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="F36" t="n">
-        <v>5.08351497475079</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="G36" t="n">
-        <v>5.08351497475079</v>
+        <v>69.26931011049321</v>
       </c>
       <c r="H36" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I36" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J36" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K36" t="n">
-        <v>17.68982094703744</v>
+        <v>17.6898209470375</v>
       </c>
       <c r="L36" t="n">
-        <v>80.59831875957846</v>
+        <v>21.80275241834712</v>
       </c>
       <c r="M36" t="n">
-        <v>84.71125023088808</v>
+        <v>84.71125023088825</v>
       </c>
       <c r="N36" t="n">
-        <v>147.6197480434291</v>
+        <v>147.6197480434294</v>
       </c>
       <c r="O36" t="n">
-        <v>210.5282458559701</v>
+        <v>210.5282458559705</v>
       </c>
       <c r="P36" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Q36" t="n">
-        <v>233.0126055498192</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="R36" t="n">
-        <v>168.8268104140769</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="S36" t="n">
-        <v>104.6410152783346</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="T36" t="n">
-        <v>40.45522014259231</v>
+        <v>197.640900381978</v>
       </c>
       <c r="U36" t="n">
-        <v>5.08351497475079</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="V36" t="n">
-        <v>5.08351497475079</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="W36" t="n">
-        <v>5.08351497475079</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="X36" t="n">
-        <v>5.08351497475079</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="Y36" t="n">
-        <v>5.08351497475079</v>
+        <v>133.4551052462356</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="C37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="D37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="E37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="F37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="G37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="H37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="I37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="J37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="K37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="L37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="M37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="N37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="O37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="P37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Q37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="R37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="S37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="T37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="U37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="V37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="W37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="X37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Y37" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="C38" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="D38" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="E38" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="F38" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="G38" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="H38" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I38" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J38" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K38" t="n">
-        <v>6.668317430639783</v>
+        <v>6.668317430639877</v>
       </c>
       <c r="L38" t="n">
-        <v>45.5361668729285</v>
+        <v>45.53616687292871</v>
       </c>
       <c r="M38" t="n">
-        <v>108.4446646854695</v>
+        <v>108.4446646854698</v>
       </c>
       <c r="N38" t="n">
-        <v>171.3531624980105</v>
+        <v>171.353162498011</v>
       </c>
       <c r="O38" t="n">
-        <v>234.2616603105515</v>
+        <v>234.2616603105521</v>
       </c>
       <c r="P38" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="Q38" t="n">
-        <v>253.4516068950647</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="R38" t="n">
-        <v>253.4516068950647</v>
+        <v>189.265811759323</v>
       </c>
       <c r="S38" t="n">
-        <v>253.4516068950647</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="T38" t="n">
-        <v>253.4516068950647</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="U38" t="n">
-        <v>197.6409003819777</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="V38" t="n">
-        <v>133.4551052462354</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="W38" t="n">
-        <v>69.26931011049308</v>
+        <v>60.89422148783819</v>
       </c>
       <c r="X38" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="Y38" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>40.45522014259231</v>
+        <v>69.26931011049321</v>
       </c>
       <c r="C39" t="n">
-        <v>5.08351497475079</v>
+        <v>69.26931011049321</v>
       </c>
       <c r="D39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="E39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="F39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="G39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="H39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J39" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K39" t="n">
-        <v>17.68982094703744</v>
+        <v>17.6898209470375</v>
       </c>
       <c r="L39" t="n">
-        <v>80.59831875957846</v>
+        <v>21.80275241834712</v>
       </c>
       <c r="M39" t="n">
-        <v>143.5068165721195</v>
+        <v>84.71125023088825</v>
       </c>
       <c r="N39" t="n">
-        <v>206.4153143846605</v>
+        <v>147.6197480434294</v>
       </c>
       <c r="O39" t="n">
-        <v>210.5282458559701</v>
+        <v>210.5282458559705</v>
       </c>
       <c r="P39" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="Q39" t="n">
-        <v>233.0126055498192</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="R39" t="n">
-        <v>233.0126055498192</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="S39" t="n">
-        <v>233.0126055498192</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="T39" t="n">
-        <v>233.0126055498192</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="U39" t="n">
-        <v>233.0126055498192</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="V39" t="n">
-        <v>168.8268104140769</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="W39" t="n">
-        <v>104.6410152783346</v>
+        <v>189.9899536017975</v>
       </c>
       <c r="X39" t="n">
-        <v>104.6410152783346</v>
+        <v>125.8041584660551</v>
       </c>
       <c r="Y39" t="n">
-        <v>40.45522014259231</v>
+        <v>69.26931011049321</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="C40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="D40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="E40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="F40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="G40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="H40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="L40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="M40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="N40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="O40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="P40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="R40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="S40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="T40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="U40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="V40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="W40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="X40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750799</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.08351497475079</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="C41" t="n">
-        <v>5.08351497475079</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="D41" t="n">
-        <v>5.08351497475079</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="E41" t="n">
-        <v>5.08351497475079</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="F41" t="n">
-        <v>5.08351497475079</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="G41" t="n">
-        <v>5.08351497475079</v>
+        <v>166.917686702143</v>
       </c>
       <c r="H41" t="n">
-        <v>5.08351497475079</v>
+        <v>102.7318915664003</v>
       </c>
       <c r="I41" t="n">
-        <v>5.08351497475079</v>
+        <v>38.54609643065766</v>
       </c>
       <c r="J41" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="K41" t="n">
-        <v>6.668317430639783</v>
+        <v>6.668317430639899</v>
       </c>
       <c r="L41" t="n">
-        <v>45.5361668729285</v>
+        <v>45.53616687292873</v>
       </c>
       <c r="M41" t="n">
-        <v>108.4446646854695</v>
+        <v>108.4446646854701</v>
       </c>
       <c r="N41" t="n">
-        <v>171.3531624980105</v>
+        <v>171.3531624980116</v>
       </c>
       <c r="O41" t="n">
-        <v>234.2616603105515</v>
+        <v>234.2616603105527</v>
       </c>
       <c r="P41" t="n">
-        <v>253.4516068950647</v>
+        <v>253.451606895066</v>
       </c>
       <c r="Q41" t="n">
-        <v>253.4516068950647</v>
+        <v>253.451606895066</v>
       </c>
       <c r="R41" t="n">
-        <v>253.4516068950647</v>
+        <v>253.451606895066</v>
       </c>
       <c r="S41" t="n">
-        <v>253.4516068950647</v>
+        <v>253.451606895066</v>
       </c>
       <c r="T41" t="n">
-        <v>253.4516068950647</v>
+        <v>253.451606895066</v>
       </c>
       <c r="U41" t="n">
-        <v>253.4516068950647</v>
+        <v>253.451606895066</v>
       </c>
       <c r="V41" t="n">
-        <v>253.4516068950647</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="W41" t="n">
-        <v>197.6409003819777</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="X41" t="n">
-        <v>133.4551052462354</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="Y41" t="n">
-        <v>69.26931011049308</v>
+        <v>231.1034818378857</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>254.1757487375395</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="C42" t="n">
-        <v>254.1757487375395</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="D42" t="n">
-        <v>254.1757487375395</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="E42" t="n">
-        <v>197.6409003819777</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="F42" t="n">
-        <v>133.4551052462354</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4551052462354</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="H42" t="n">
-        <v>69.26931011049308</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="I42" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="J42" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="K42" t="n">
-        <v>17.68982094703744</v>
+        <v>17.68982094703752</v>
       </c>
       <c r="L42" t="n">
-        <v>80.59831875957846</v>
+        <v>80.59831875957894</v>
       </c>
       <c r="M42" t="n">
-        <v>143.5068165721195</v>
+        <v>143.5068165721204</v>
       </c>
       <c r="N42" t="n">
-        <v>206.4153143846605</v>
+        <v>147.6197480434302</v>
       </c>
       <c r="O42" t="n">
-        <v>210.5282458559701</v>
+        <v>210.5282458559716</v>
       </c>
       <c r="P42" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375411</v>
       </c>
       <c r="Q42" t="n">
-        <v>254.1757487375395</v>
+        <v>254.1757487375411</v>
       </c>
       <c r="R42" t="n">
-        <v>254.1757487375395</v>
+        <v>189.9899536017984</v>
       </c>
       <c r="S42" t="n">
-        <v>254.1757487375395</v>
+        <v>125.8041584660557</v>
       </c>
       <c r="T42" t="n">
-        <v>254.1757487375395</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="U42" t="n">
-        <v>254.1757487375395</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="V42" t="n">
-        <v>254.1757487375395</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="W42" t="n">
-        <v>254.1757487375395</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="X42" t="n">
-        <v>254.1757487375395</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="Y42" t="n">
-        <v>254.1757487375395</v>
+        <v>69.26931011049352</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="C43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="D43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="E43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="F43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="G43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="H43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="I43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="J43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="K43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="L43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="M43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="N43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="O43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="P43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="R43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="S43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="T43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="U43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="V43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="W43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="X43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.08351497475079</v>
+        <v>5.083514974750821</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>119.2744419635314</v>
+        <v>101.7887866763392</v>
       </c>
       <c r="C44" t="n">
-        <v>67.3413875368276</v>
+        <v>56.04615233729864</v>
       </c>
       <c r="D44" t="n">
-        <v>15.40833311012383</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="E44" t="n">
-        <v>15.40833311012383</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="F44" t="n">
-        <v>15.40833311012383</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="G44" t="n">
-        <v>15.40833311012383</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="H44" t="n">
-        <v>15.40833311012383</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="I44" t="n">
-        <v>15.40833311012383</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="J44" t="n">
-        <v>4.113097910594938</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="K44" t="n">
-        <v>4.113097910594938</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="L44" t="n">
-        <v>42.98094735288366</v>
+        <v>42.98094735288377</v>
       </c>
       <c r="M44" t="n">
-        <v>84.665775658009</v>
+        <v>93.88053399649607</v>
       </c>
       <c r="N44" t="n">
-        <v>135.5653623016213</v>
+        <v>144.7801206401084</v>
       </c>
       <c r="O44" t="n">
-        <v>186.4649489452337</v>
+        <v>195.6797072837206</v>
       </c>
       <c r="P44" t="n">
-        <v>205.6548955297469</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="Q44" t="n">
-        <v>171.2074963902351</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="R44" t="n">
-        <v>171.2074963902351</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="S44" t="n">
-        <v>171.2074963902351</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="T44" t="n">
-        <v>171.2074963902351</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="U44" t="n">
-        <v>171.2074963902351</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="V44" t="n">
-        <v>171.2074963902351</v>
+        <v>153.7218411030429</v>
       </c>
       <c r="W44" t="n">
-        <v>119.2744419635314</v>
+        <v>153.7218411030429</v>
       </c>
       <c r="X44" t="n">
-        <v>119.2744419635314</v>
+        <v>153.7218411030429</v>
       </c>
       <c r="Y44" t="n">
-        <v>119.2744419635314</v>
+        <v>101.7887866763392</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="C45" t="n">
-        <v>153.7218411030431</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="D45" t="n">
-        <v>101.7887866763394</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="E45" t="n">
-        <v>56.0461523372987</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="F45" t="n">
-        <v>56.0461523372987</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="G45" t="n">
-        <v>4.113097910594938</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="H45" t="n">
-        <v>4.113097910594938</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="I45" t="n">
-        <v>4.113097910594938</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="J45" t="n">
-        <v>4.113097910594938</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="K45" t="n">
-        <v>16.71940388288159</v>
+        <v>16.71940388288164</v>
       </c>
       <c r="L45" t="n">
-        <v>67.61899052649395</v>
+        <v>16.71940388288164</v>
       </c>
       <c r="M45" t="n">
-        <v>118.5185771701063</v>
+        <v>60.20821936095265</v>
       </c>
       <c r="N45" t="n">
-        <v>169.4181638137186</v>
+        <v>111.1078060045649</v>
       </c>
       <c r="O45" t="n">
-        <v>205.6548955297469</v>
+        <v>162.0073926481772</v>
       </c>
       <c r="P45" t="n">
-        <v>205.6548955297469</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="Q45" t="n">
-        <v>205.6548955297469</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="R45" t="n">
-        <v>205.6548955297469</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="S45" t="n">
-        <v>205.6548955297469</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="T45" t="n">
-        <v>205.6548955297469</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="U45" t="n">
-        <v>205.6548955297469</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="V45" t="n">
-        <v>205.6548955297469</v>
+        <v>153.7218411030429</v>
       </c>
       <c r="W45" t="n">
-        <v>205.6548955297469</v>
+        <v>101.7887866763392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.6548955297469</v>
+        <v>49.85573224963554</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="C46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="D46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="E46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="F46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="G46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="H46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="I46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="J46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="K46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="L46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="M46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="N46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="O46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="P46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="R46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="S46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="T46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="U46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="V46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="W46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="X46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="Y46" t="n">
-        <v>205.6548955297469</v>
+        <v>4.113097910594933</v>
       </c>
     </row>
   </sheetData>
@@ -23261,25 +23261,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>291.1391044362977</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>384.7514019351028</v>
       </c>
       <c r="G11" t="n">
-        <v>413.5599377815856</v>
+        <v>350.0160005972008</v>
       </c>
       <c r="H11" t="n">
-        <v>321.6263543445543</v>
+        <v>258.0824171601695</v>
       </c>
       <c r="I11" t="n">
-        <v>143.2866028427426</v>
+        <v>79.74266565835777</v>
       </c>
       <c r="J11" t="n">
-        <v>33.12795564134782</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R11" t="n">
-        <v>84.95971975172009</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S11" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T11" t="n">
         <v>215.4667437305189</v>
@@ -23315,10 +23315,10 @@
         <v>251.2062289291525</v>
       </c>
       <c r="V11" t="n">
-        <v>264.2083212857497</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>285.6970315330278</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23340,25 +23340,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>91.4755656926323</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>94.1011432710157</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>81.52527520899864</v>
+        <v>127.8384221713328</v>
       </c>
       <c r="G12" t="n">
-        <v>72.86709991384186</v>
+        <v>72.86709991384228</v>
       </c>
       <c r="H12" t="n">
-        <v>103.2296499246818</v>
+        <v>39.68571274029703</v>
       </c>
       <c r="I12" t="n">
-        <v>67.41725495561089</v>
+        <v>3.873317771226063</v>
       </c>
       <c r="J12" t="n">
-        <v>38.73870964995511</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,10 +23379,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.95151175584309</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R12" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S12" t="n">
         <v>154.3627628792534</v>
@@ -23437,28 +23437,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J13" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K13" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L13" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M13" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N13" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O13" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P13" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R13" t="n">
         <v>142.1426207020684</v>
@@ -23501,22 +23501,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>326.677770624306</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>343.3321085573262</v>
+        <v>384.7514019351028</v>
       </c>
       <c r="G14" t="n">
-        <v>350.0160005972004</v>
+        <v>350.0160005972008</v>
       </c>
       <c r="H14" t="n">
-        <v>258.0824171601691</v>
+        <v>258.0824171601695</v>
       </c>
       <c r="I14" t="n">
-        <v>143.2866028427426</v>
+        <v>79.74266565835777</v>
       </c>
       <c r="J14" t="n">
-        <v>33.12795564134782</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,13 +23537,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R14" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S14" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T14" t="n">
         <v>215.4667437305189</v>
@@ -23592,10 +23592,10 @@
         <v>103.2296499246818</v>
       </c>
       <c r="I15" t="n">
-        <v>7.59403930501734</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23616,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R15" t="n">
-        <v>24.2400062536714</v>
+        <v>31.8144435660505</v>
       </c>
       <c r="S15" t="n">
-        <v>90.81882569486814</v>
+        <v>90.81882569486856</v>
       </c>
       <c r="T15" t="n">
-        <v>196.4061796609626</v>
+        <v>132.8622424765777</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8800347082785</v>
+        <v>162.3360975238937</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23674,28 +23674,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J16" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K16" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L16" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M16" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N16" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O16" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P16" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R16" t="n">
         <v>142.1426207020684</v>
@@ -23744,13 +23744,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>361.9942819387087</v>
+        <v>361.9942819387085</v>
       </c>
       <c r="H17" t="n">
-        <v>258.0824171601691</v>
+        <v>258.0824171601694</v>
       </c>
       <c r="I17" t="n">
-        <v>79.7426656583574</v>
+        <v>79.74266565835759</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S17" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T17" t="n">
         <v>215.4667437305189</v>
@@ -23820,19 +23820,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>127.8384221713325</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>72.86709991384186</v>
+        <v>136.4110370982271</v>
       </c>
       <c r="H18" t="n">
-        <v>39.68571274029659</v>
+        <v>103.2296499246818</v>
       </c>
       <c r="I18" t="n">
-        <v>3.873317771225643</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,25 +23853,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.95151175584309</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S18" t="n">
         <v>154.3627628792534</v>
       </c>
       <c r="T18" t="n">
-        <v>196.4061796609626</v>
+        <v>132.8622424765776</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8800347082785</v>
+        <v>162.3360975238936</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>169.2566499650403</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>216.6769950447563</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23911,28 +23911,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J19" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K19" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L19" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M19" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N19" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O19" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P19" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R19" t="n">
         <v>142.1426207020684</v>
@@ -23972,25 +23972,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>279.0088911343494</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>331.201895255378</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>337.8857872952522</v>
+        <v>413.5599377815856</v>
       </c>
       <c r="H20" t="n">
-        <v>245.9522038582209</v>
+        <v>321.6263543445543</v>
       </c>
       <c r="I20" t="n">
-        <v>100.6469991861525</v>
+        <v>143.2866028427426</v>
       </c>
       <c r="J20" t="n">
-        <v>33.12795564134782</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,19 +24011,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R20" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S20" t="n">
-        <v>169.3060206579884</v>
+        <v>126.666417001398</v>
       </c>
       <c r="T20" t="n">
-        <v>215.4667437305189</v>
+        <v>139.7925932441853</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2062289291525</v>
+        <v>175.532078442819</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24051,25 +24051,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>80.79127381627617</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>81.97092996906738</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>69.39506190705032</v>
       </c>
       <c r="G21" t="n">
-        <v>69.7572453498646</v>
+        <v>136.4110370982271</v>
       </c>
       <c r="H21" t="n">
         <v>103.2296499246818</v>
       </c>
       <c r="I21" t="n">
-        <v>67.41725495561089</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J21" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,13 +24090,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.95151175584309</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R21" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S21" t="n">
-        <v>78.68861239291994</v>
+        <v>154.3627628792534</v>
       </c>
       <c r="T21" t="n">
         <v>196.4061796609626</v>
@@ -24108,13 +24108,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>176.0208326745862</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>130.098834717144</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>130.0085452909708</v>
       </c>
     </row>
     <row r="22">
@@ -24148,28 +24148,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J22" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K22" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L22" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M22" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N22" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O22" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P22" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R22" t="n">
         <v>142.1426207020684</v>
@@ -24206,28 +24206,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>283.713841911045</v>
+        <v>334.5201963592107</v>
       </c>
       <c r="D23" t="n">
-        <v>273.1239917607204</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>325.3169958817489</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.5599377815856</v>
       </c>
       <c r="H23" t="n">
-        <v>290.8736589327577</v>
+        <v>321.6263543445543</v>
       </c>
       <c r="I23" t="n">
         <v>143.2866028427426</v>
       </c>
       <c r="J23" t="n">
-        <v>33.12795564134782</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,22 +24248,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R23" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S23" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T23" t="n">
-        <v>215.4667437305189</v>
+        <v>133.9076938705562</v>
       </c>
       <c r="U23" t="n">
         <v>251.2062289291525</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>246.1932086101722</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>304.6788887960909</v>
       </c>
     </row>
     <row r="24">
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>84.97413378990467</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>121.8227996275037</v>
       </c>
       <c r="D24" t="n">
-        <v>65.8860157046762</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>76.08603059543839</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>63.51016253342132</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.4110370982271</v>
@@ -24303,10 +24303,10 @@
         <v>103.2296499246818</v>
       </c>
       <c r="I24" t="n">
-        <v>67.41725495561089</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J24" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,10 +24327,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.95151175584309</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S24" t="n">
         <v>154.3627628792534</v>
@@ -24339,16 +24339,16 @@
         <v>196.4061796609626</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8800347082785</v>
+        <v>144.3209848483159</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>170.1359333009569</v>
       </c>
       <c r="X24" t="n">
-        <v>133.9357740868225</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24385,28 +24385,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J25" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K25" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L25" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M25" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N25" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O25" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P25" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R25" t="n">
         <v>142.1426207020684</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301.174791803518</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,22 +24449,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>351.1776746604649</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>325.3169958817488</v>
       </c>
       <c r="G26" t="n">
-        <v>382.807242369789</v>
+        <v>332.000887921623</v>
       </c>
       <c r="H26" t="n">
-        <v>321.6263543445543</v>
+        <v>240.0673044845917</v>
       </c>
       <c r="I26" t="n">
         <v>143.2866028427426</v>
       </c>
       <c r="J26" t="n">
-        <v>33.12795564134782</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,13 +24485,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R26" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S26" t="n">
-        <v>87.74697079802581</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T26" t="n">
         <v>215.4667437305189</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>288.1720508185065</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>84.97413378990467</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>91.14944912835307</v>
       </c>
       <c r="D27" t="n">
-        <v>65.8860157046762</v>
+        <v>65.88601570467608</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24537,13 +24537,13 @@
         <v>136.4110370982271</v>
       </c>
       <c r="H27" t="n">
-        <v>103.2296499246818</v>
+        <v>31.39243880802674</v>
       </c>
       <c r="I27" t="n">
-        <v>67.41725495561089</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J27" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,13 +24564,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R27" t="n">
-        <v>6.224893578094083</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S27" t="n">
-        <v>103.4770635184415</v>
+        <v>154.3627628792534</v>
       </c>
       <c r="T27" t="n">
         <v>196.4061796609626</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>124.1236459173418</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24622,28 +24622,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J28" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K28" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L28" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M28" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N28" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O28" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P28" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R28" t="n">
         <v>142.1426207020684</v>
@@ -24689,19 +24689,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>328.6672256180689</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.5599377815856</v>
+        <v>334.3761481511738</v>
       </c>
       <c r="H29" t="n">
-        <v>240.0673044845918</v>
+        <v>240.0673044845917</v>
       </c>
       <c r="I29" t="n">
-        <v>143.2866028427426</v>
+        <v>61.72755298277991</v>
       </c>
       <c r="J29" t="n">
-        <v>33.12795564134782</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,16 +24722,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R29" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S29" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T29" t="n">
-        <v>133.9076938705563</v>
+        <v>215.4667437305189</v>
       </c>
       <c r="U29" t="n">
         <v>251.2062289291525</v>
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>91.14944912835318</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24777,10 +24777,10 @@
         <v>103.2296499246818</v>
       </c>
       <c r="I30" t="n">
-        <v>67.41725495561089</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J30" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,31 +24801,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.95151175584309</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R30" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S30" t="n">
-        <v>154.3627628792534</v>
+        <v>82.52555176259828</v>
       </c>
       <c r="T30" t="n">
         <v>196.4061796609626</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8800347082785</v>
+        <v>144.3209848483159</v>
       </c>
       <c r="V30" t="n">
-        <v>151.2415372894627</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>170.1359333009569</v>
       </c>
       <c r="X30" t="n">
-        <v>133.9357740868225</v>
+        <v>124.2139353435148</v>
       </c>
       <c r="Y30" t="n">
-        <v>124.1236459173418</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24859,28 +24859,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J31" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K31" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L31" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M31" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N31" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O31" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P31" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R31" t="n">
         <v>142.1426207020684</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>301.1747918035179</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24929,16 +24929,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>382.807242369789</v>
+        <v>413.5599377815856</v>
       </c>
       <c r="H32" t="n">
         <v>321.6263543445543</v>
       </c>
       <c r="I32" t="n">
-        <v>143.2866028427426</v>
+        <v>61.72755298277991</v>
       </c>
       <c r="J32" t="n">
-        <v>33.12795564134782</v>
+        <v>2.375260229550879</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,16 +24959,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R32" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S32" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T32" t="n">
-        <v>215.4667437305189</v>
+        <v>133.9076938705562</v>
       </c>
       <c r="U32" t="n">
         <v>251.2062289291525</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>267.6819188574505</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>288.1720508185065</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>304.678888796091</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24996,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>91.14944912835318</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>85.80786933874585</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25014,10 +25014,10 @@
         <v>103.2296499246818</v>
       </c>
       <c r="I33" t="n">
-        <v>67.41725495561089</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,22 +25038,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R33" t="n">
-        <v>6.224893578094083</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S33" t="n">
-        <v>72.80371301929083</v>
+        <v>72.80371301929071</v>
       </c>
       <c r="T33" t="n">
-        <v>184.2591899501058</v>
+        <v>196.4061796609626</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8800347082785</v>
+        <v>144.3209848483159</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>151.2415372894626</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25096,28 +25096,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J34" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K34" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L34" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M34" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N34" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O34" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P34" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R34" t="n">
         <v>142.1426207020684</v>
@@ -25151,19 +25151,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>319.1899044790956</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>301.7289545866225</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>291.139104436298</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>351.6234462937549</v>
       </c>
       <c r="G35" t="n">
         <v>413.5599377815856</v>
@@ -25175,7 +25175,7 @@
         <v>143.2866028427426</v>
       </c>
       <c r="J35" t="n">
-        <v>33.12795564134782</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25196,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R35" t="n">
-        <v>42.56545686717469</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S35" t="n">
-        <v>105.7620834736035</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T35" t="n">
-        <v>151.922806546134</v>
+        <v>215.4667437305189</v>
       </c>
       <c r="U35" t="n">
-        <v>195.9536294811963</v>
+        <v>251.2062289291525</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,16 +25245,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.4110370982271</v>
+        <v>72.86709991384211</v>
       </c>
       <c r="H36" t="n">
-        <v>103.2296499246818</v>
+        <v>39.68571274029685</v>
       </c>
       <c r="I36" t="n">
-        <v>67.41725495561089</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J36" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25275,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R36" t="n">
-        <v>24.24000625367177</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S36" t="n">
-        <v>90.81882569486851</v>
+        <v>154.3627628792534</v>
       </c>
       <c r="T36" t="n">
-        <v>132.8622424765777</v>
+        <v>140.4366797889563</v>
       </c>
       <c r="U36" t="n">
-        <v>190.8620465921154</v>
+        <v>162.3360975238936</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25333,28 +25333,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J37" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K37" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L37" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M37" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N37" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O37" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P37" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R37" t="n">
         <v>142.1426207020684</v>
@@ -25412,7 +25412,7 @@
         <v>143.2866028427426</v>
       </c>
       <c r="J38" t="n">
-        <v>33.12795564134782</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,28 +25433,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R38" t="n">
-        <v>106.1093940515596</v>
+        <v>42.56545686717453</v>
       </c>
       <c r="S38" t="n">
-        <v>169.3060206579884</v>
+        <v>105.7620834736034</v>
       </c>
       <c r="T38" t="n">
         <v>215.4667437305189</v>
       </c>
       <c r="U38" t="n">
-        <v>195.9536294811963</v>
+        <v>251.2062289291525</v>
       </c>
       <c r="V38" t="n">
-        <v>264.20832128575</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>285.6970315330282</v>
+        <v>285.6970315330281</v>
       </c>
       <c r="X38" t="n">
-        <v>306.1871634940842</v>
+        <v>314.4785012305125</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>137.6905108721526</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>83.90112838025377</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25488,10 +25488,10 @@
         <v>103.2296499246818</v>
       </c>
       <c r="I39" t="n">
-        <v>67.41725495561089</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J39" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,10 +25512,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R39" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S39" t="n">
         <v>154.3627628792534</v>
@@ -25527,16 +25527,16 @@
         <v>225.8800347082785</v>
       </c>
       <c r="V39" t="n">
-        <v>169.2566499650404</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>188.1510459765347</v>
+        <v>188.1510459765346</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>142.2290480190925</v>
       </c>
       <c r="Y39" t="n">
-        <v>142.1387585929195</v>
+        <v>149.7131959052981</v>
       </c>
     </row>
     <row r="40">
@@ -25570,28 +25570,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J40" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K40" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L40" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M40" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N40" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O40" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P40" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R40" t="n">
         <v>142.1426207020684</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>319.1899044790957</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25640,16 +25640,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.5599377815856</v>
+        <v>350.0160005972004</v>
       </c>
       <c r="H41" t="n">
-        <v>321.6263543445543</v>
+        <v>258.0824171601691</v>
       </c>
       <c r="I41" t="n">
-        <v>143.2866028427426</v>
+        <v>79.74266565835731</v>
       </c>
       <c r="J41" t="n">
-        <v>33.12795564134782</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>34.10292514811664</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R41" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S41" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T41" t="n">
         <v>215.4667437305189</v>
@@ -25685,16 +25685,16 @@
         <v>251.2062289291525</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>305.6276146635265</v>
       </c>
       <c r="W41" t="n">
-        <v>293.9883692694568</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>306.1871634940842</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>322.6940014716687</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25713,22 +25713,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>101.6755805833947</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>81.52527520899901</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.4110370982271</v>
       </c>
       <c r="H42" t="n">
-        <v>39.68571274029696</v>
+        <v>103.2296499246818</v>
       </c>
       <c r="I42" t="n">
-        <v>3.873317771226013</v>
+        <v>3.873317771225608</v>
       </c>
       <c r="J42" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,16 +25749,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.95151175584309</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R42" t="n">
-        <v>87.78394343805664</v>
+        <v>24.24000625367135</v>
       </c>
       <c r="S42" t="n">
-        <v>154.3627628792534</v>
+        <v>90.81882569486811</v>
       </c>
       <c r="T42" t="n">
-        <v>196.4061796609626</v>
+        <v>140.436679788956</v>
       </c>
       <c r="U42" t="n">
         <v>225.8800347082785</v>
@@ -25807,28 +25807,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J43" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K43" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L43" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M43" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N43" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O43" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P43" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R43" t="n">
         <v>142.1426207020684</v>
@@ -25865,10 +25865,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>313.8591678885708</v>
+        <v>319.9876837753574</v>
       </c>
       <c r="D44" t="n">
-        <v>303.2693177382462</v>
+        <v>303.2693177382463</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25886,7 @@
         <v>143.2866028427426</v>
       </c>
       <c r="J44" t="n">
-        <v>21.94567279381422</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R44" t="n">
-        <v>106.1093940515596</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S44" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T44" t="n">
         <v>215.4667437305189</v>
@@ -25922,16 +25922,16 @@
         <v>251.2062289291525</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>276.3385345876982</v>
       </c>
       <c r="W44" t="n">
-        <v>297.8272448349763</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>334.8242147736169</v>
       </c>
     </row>
     <row r="45">
@@ -25944,28 +25944,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>121.294775105879</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>96.03134168220203</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>112.3598724597507</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>84.99731321579037</v>
+        <v>136.4110370982271</v>
       </c>
       <c r="H45" t="n">
         <v>103.2296499246818</v>
       </c>
       <c r="I45" t="n">
-        <v>67.41725495561089</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J45" t="n">
-        <v>38.73870964995511</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,10 +25986,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.95151175584309</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R45" t="n">
-        <v>87.78394343805664</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S45" t="n">
         <v>154.3627628792534</v>
@@ -26001,16 +26001,16 @@
         <v>225.8800347082785</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>181.3868632669886</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>200.2812592784829</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>154.3592613210408</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>160.3974877816541</v>
       </c>
     </row>
     <row r="46">
@@ -26044,28 +26044,28 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J46" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K46" t="n">
-        <v>38.18696435173403</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L46" t="n">
-        <v>18.65829059167039</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M46" t="n">
-        <v>16.38135637971838</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N46" t="n">
-        <v>8.054949484647565</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O46" t="n">
-        <v>27.95832121438394</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P46" t="n">
-        <v>43.17769004560044</v>
+        <v>43.17769004560041</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.04326513766341</v>
+        <v>86.0432651376634</v>
       </c>
       <c r="R46" t="n">
         <v>142.1426207020684</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>344721.2723363236</v>
+        <v>344721.2723363234</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>344721.2723363238</v>
+        <v>344721.2723363236</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>349970.9870680786</v>
+        <v>349970.9870680788</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>351898.0476132444</v>
+        <v>351898.0476132445</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>351898.0476132444</v>
+        <v>351898.0476132446</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>344721.2723363234</v>
+        <v>344721.2723363236</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>344721.2723363234</v>
+        <v>344721.2723363236</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>344721.2723363236</v>
+        <v>344721.2723363237</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>337045.0691913635</v>
+        <v>337045.0691913633</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>77453.67751880539</v>
       </c>
       <c r="C2" t="n">
-        <v>77453.6775188054</v>
+        <v>77453.67751880539</v>
       </c>
       <c r="D2" t="n">
         <v>77478.19920391326</v>
@@ -26332,28 +26332,28 @@
         <v>103695.1072794306</v>
       </c>
       <c r="I2" t="n">
-        <v>104266.0881817019</v>
+        <v>104266.088181702</v>
       </c>
       <c r="J2" t="n">
-        <v>104266.0881817019</v>
+        <v>104266.088181702</v>
       </c>
       <c r="K2" t="n">
-        <v>104266.0881817019</v>
+        <v>104266.088181702</v>
       </c>
       <c r="L2" t="n">
-        <v>104266.0881817019</v>
+        <v>104266.088181702</v>
       </c>
       <c r="M2" t="n">
-        <v>102139.6362477994</v>
+        <v>102139.6362477995</v>
       </c>
       <c r="N2" t="n">
-        <v>102139.6362477994</v>
+        <v>102139.6362477995</v>
       </c>
       <c r="O2" t="n">
-        <v>102139.6362477994</v>
+        <v>102139.6362477995</v>
       </c>
       <c r="P2" t="n">
-        <v>99865.20568632982</v>
+        <v>99865.20568632976</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>117.1538387574727</v>
       </c>
       <c r="E3" t="n">
-        <v>105100.1989314227</v>
+        <v>105100.1989314228</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3272.84072078533</v>
+        <v>3272.84072078545</v>
       </c>
       <c r="I3" t="n">
         <v>1564.918326334827</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>11345.96518289288</v>
+        <v>11345.96518289277</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>45.95698610363543</v>
+        <v>45.9569861036352</v>
       </c>
       <c r="F4" t="n">
-        <v>45.95698610363538</v>
+        <v>45.9569861036352</v>
       </c>
       <c r="G4" t="n">
-        <v>45.95698610363543</v>
+        <v>45.95698610363531</v>
       </c>
       <c r="H4" t="n">
-        <v>51.90843633179244</v>
+        <v>51.90843633179254</v>
       </c>
       <c r="I4" t="n">
-        <v>54.09308930956762</v>
+        <v>54.09308930956772</v>
       </c>
       <c r="J4" t="n">
-        <v>54.09308930956762</v>
+        <v>54.09308930956772</v>
       </c>
       <c r="K4" t="n">
-        <v>54.09308930956762</v>
+        <v>54.09308930956772</v>
       </c>
       <c r="L4" t="n">
-        <v>54.09308930956762</v>
+        <v>54.09308930956772</v>
       </c>
       <c r="M4" t="n">
-        <v>45.9569861036352</v>
+        <v>45.95698610363531</v>
       </c>
       <c r="N4" t="n">
-        <v>45.9569861036352</v>
+        <v>45.95698610363531</v>
       </c>
       <c r="O4" t="n">
-        <v>45.9569861036352</v>
+        <v>45.95698610363544</v>
       </c>
       <c r="P4" t="n">
-        <v>37.2546959235402</v>
+        <v>37.25469592354017</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>40741.33736580378</v>
       </c>
       <c r="E5" t="n">
+        <v>13314.23863591561</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13314.23863591561</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13314.23863591562</v>
+      </c>
+      <c r="H5" t="n">
+        <v>14051.7556046741</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14409.55748659075</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14409.55748659075</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14409.55748659075</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14409.55748659075</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13314.23863591562</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13314.23863591562</v>
+      </c>
+      <c r="O5" t="n">
         <v>13314.23863591564</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13314.23863591564</v>
-      </c>
-      <c r="G5" t="n">
-        <v>13314.23863591564</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14051.75560467409</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14409.55748659074</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14409.55748659074</v>
-      </c>
-      <c r="K5" t="n">
-        <v>14409.55748659074</v>
-      </c>
-      <c r="L5" t="n">
-        <v>14409.55748659074</v>
-      </c>
-      <c r="M5" t="n">
-        <v>13314.23863591561</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13314.23863591561</v>
-      </c>
-      <c r="O5" t="n">
-        <v>13314.23863591561</v>
       </c>
       <c r="P5" t="n">
         <v>12576.72166715717</v>
@@ -26522,46 +26522,46 @@
         <v>-277597.345921362</v>
       </c>
       <c r="C6" t="n">
-        <v>36715.32230145425</v>
+        <v>36715.32230145424</v>
       </c>
       <c r="D6" t="n">
         <v>36619.70799935201</v>
       </c>
       <c r="E6" t="n">
-        <v>-16320.75830564252</v>
+        <v>-16320.75830564253</v>
       </c>
       <c r="F6" t="n">
+        <v>88779.44062578023</v>
+      </c>
+      <c r="G6" t="n">
+        <v>88779.44062578029</v>
+      </c>
+      <c r="H6" t="n">
+        <v>86318.60251763929</v>
+      </c>
+      <c r="I6" t="n">
+        <v>88237.51927946683</v>
+      </c>
+      <c r="J6" t="n">
+        <v>89802.43760580165</v>
+      </c>
+      <c r="K6" t="n">
+        <v>89802.43760580165</v>
+      </c>
+      <c r="L6" t="n">
+        <v>89802.43760580165</v>
+      </c>
+      <c r="M6" t="n">
+        <v>77433.47544288747</v>
+      </c>
+      <c r="N6" t="n">
         <v>88779.44062578022</v>
       </c>
-      <c r="G6" t="n">
-        <v>88779.4406257802</v>
-      </c>
-      <c r="H6" t="n">
-        <v>86318.6025176394</v>
-      </c>
-      <c r="I6" t="n">
-        <v>88237.51927946681</v>
-      </c>
-      <c r="J6" t="n">
-        <v>89802.43760580164</v>
-      </c>
-      <c r="K6" t="n">
-        <v>89802.43760580162</v>
-      </c>
-      <c r="L6" t="n">
-        <v>89802.43760580164</v>
-      </c>
-      <c r="M6" t="n">
-        <v>77433.47544288731</v>
-      </c>
-      <c r="N6" t="n">
-        <v>88779.44062578019</v>
-      </c>
       <c r="O6" t="n">
-        <v>88779.4406257802</v>
+        <v>88779.44062578025</v>
       </c>
       <c r="P6" t="n">
-        <v>87251.22932324912</v>
+        <v>87251.22932324906</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>326.3182277891643</v>
       </c>
       <c r="E3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="F3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="G3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="H3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="I3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="J3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="K3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="L3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="M3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="N3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="O3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="P3" t="n">
-        <v>433.5214337204134</v>
+        <v>433.5214337204136</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="F4" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="G4" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="H4" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="I4" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="J4" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="K4" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="L4" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="M4" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N4" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O4" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="P4" t="n">
-        <v>51.41372388243672</v>
+        <v>51.41372388243666</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0.1367958005794776</v>
       </c>
       <c r="E3" t="n">
-        <v>107.2032059312492</v>
+        <v>107.2032059312493</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>12.13021330194815</v>
+        <v>12.1302133019486</v>
       </c>
       <c r="I4" t="n">
         <v>5.884899373629111</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>45.52882450880757</v>
+        <v>45.52882450880713</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>12.13021330194815</v>
+        <v>12.1302133019486</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H11" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I11" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J11" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K11" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L11" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M11" t="n">
-        <v>293.890170411658</v>
+        <v>293.8901704116576</v>
       </c>
       <c r="N11" t="n">
-        <v>292.9570007809762</v>
+        <v>292.9570007809757</v>
       </c>
       <c r="O11" t="n">
-        <v>293.6421486060719</v>
+        <v>293.6421486060715</v>
       </c>
       <c r="P11" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q11" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R11" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S11" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T11" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H12" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I12" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J12" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>202.0983169642594</v>
+        <v>202.098316964259</v>
       </c>
       <c r="M12" t="n">
-        <v>159.0221525519139</v>
+        <v>205.6779711064031</v>
       </c>
       <c r="N12" t="n">
-        <v>194.8856492677185</v>
+        <v>194.8856492677181</v>
       </c>
       <c r="O12" t="n">
-        <v>206.1401816288297</v>
+        <v>159.4843630743396</v>
       </c>
       <c r="P12" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q12" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R12" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S12" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T12" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H13" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I13" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J13" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K13" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L13" t="n">
         <v>116.2263856895679</v>
@@ -31929,28 +31929,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N13" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O13" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P13" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R13" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S13" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T13" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H14" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I14" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J14" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K14" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L14" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M14" t="n">
-        <v>293.890170411658</v>
+        <v>293.8901704116576</v>
       </c>
       <c r="N14" t="n">
-        <v>292.9570007809762</v>
+        <v>292.9570007809757</v>
       </c>
       <c r="O14" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P14" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q14" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R14" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S14" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T14" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H15" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I15" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J15" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5750813706081</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>202.0983169642594</v>
+        <v>202.098316964259</v>
       </c>
       <c r="M15" t="n">
-        <v>205.6779711064036</v>
+        <v>159.0221525519135</v>
       </c>
       <c r="N15" t="n">
-        <v>194.8856492677185</v>
+        <v>194.8856492677181</v>
       </c>
       <c r="O15" t="n">
-        <v>146.7507206780909</v>
+        <v>206.1401816288293</v>
       </c>
       <c r="P15" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R15" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S15" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T15" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H16" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I16" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J16" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K16" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L16" t="n">
         <v>116.2263856895679</v>
@@ -32166,28 +32166,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N16" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O16" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P16" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R16" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S16" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T16" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H17" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I17" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J17" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K17" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L17" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M17" t="n">
-        <v>293.890170411658</v>
+        <v>293.8901704116577</v>
       </c>
       <c r="N17" t="n">
-        <v>292.9570007809762</v>
+        <v>292.9570007809759</v>
       </c>
       <c r="O17" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P17" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R17" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S17" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T17" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H18" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I18" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J18" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5750813706081</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L18" t="n">
-        <v>202.0983169642594</v>
+        <v>202.0983169642592</v>
       </c>
       <c r="M18" t="n">
-        <v>205.6779711064036</v>
+        <v>205.6779711064033</v>
       </c>
       <c r="N18" t="n">
-        <v>135.4961883169797</v>
+        <v>194.8856492677183</v>
       </c>
       <c r="O18" t="n">
-        <v>206.1401816288297</v>
+        <v>146.7507206780905</v>
       </c>
       <c r="P18" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R18" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S18" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T18" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H19" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I19" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J19" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K19" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L19" t="n">
         <v>116.2263856895679</v>
@@ -32403,28 +32403,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N19" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O19" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P19" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R19" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S19" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T19" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H20" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I20" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J20" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K20" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L20" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M20" t="n">
-        <v>306.0203837136062</v>
+        <v>306.0203837136063</v>
       </c>
       <c r="N20" t="n">
-        <v>305.0872140829243</v>
+        <v>305.0872140829244</v>
       </c>
       <c r="O20" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P20" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R20" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S20" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T20" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H21" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I21" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J21" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5750813706081</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>154.3489596871073</v>
+        <v>167.0826020833565</v>
       </c>
       <c r="M21" t="n">
-        <v>217.8081844083518</v>
+        <v>217.8081844083519</v>
       </c>
       <c r="N21" t="n">
-        <v>207.0158625696668</v>
+        <v>207.0158625696669</v>
       </c>
       <c r="O21" t="n">
-        <v>218.2703949307779</v>
+        <v>218.270394930778</v>
       </c>
       <c r="P21" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q21" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R21" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S21" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T21" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H22" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I22" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J22" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K22" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L22" t="n">
         <v>116.2263856895679</v>
@@ -32640,28 +32640,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O22" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P22" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R22" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S22" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T22" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H23" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I23" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J23" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K23" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L23" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M23" t="n">
-        <v>306.0203837136062</v>
+        <v>306.0203837136063</v>
       </c>
       <c r="N23" t="n">
-        <v>310.9721134565535</v>
+        <v>310.9721134565536</v>
       </c>
       <c r="O23" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P23" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R23" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S23" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T23" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H24" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I24" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L24" t="n">
-        <v>202.4667790219723</v>
+        <v>162.2906512093864</v>
       </c>
       <c r="M24" t="n">
-        <v>223.6930837819809</v>
+        <v>223.693083781981</v>
       </c>
       <c r="N24" t="n">
-        <v>212.9007619432959</v>
+        <v>212.900761943296</v>
       </c>
       <c r="O24" t="n">
-        <v>194.4182430273544</v>
+        <v>221.8607284436913</v>
       </c>
       <c r="P24" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q24" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R24" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S24" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T24" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H25" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I25" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J25" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K25" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L25" t="n">
         <v>116.2263856895679</v>
@@ -32877,28 +32877,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N25" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O25" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P25" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R25" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S25" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T25" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H26" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I26" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J26" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K26" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L26" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M26" t="n">
-        <v>306.0203837136062</v>
+        <v>306.0203837136063</v>
       </c>
       <c r="N26" t="n">
-        <v>310.9721134565535</v>
+        <v>310.9721134565536</v>
       </c>
       <c r="O26" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P26" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q26" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R26" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S26" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T26" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H27" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I27" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J27" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5750813706081</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L27" t="n">
-        <v>202.4667790219723</v>
+        <v>202.4667790219724</v>
       </c>
       <c r="M27" t="n">
-        <v>223.6930837819809</v>
+        <v>183.5169559693949</v>
       </c>
       <c r="N27" t="n">
-        <v>172.7246341307099</v>
+        <v>212.900761943296</v>
       </c>
       <c r="O27" t="n">
-        <v>221.8607284436912</v>
+        <v>221.8607284436913</v>
       </c>
       <c r="P27" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q27" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R27" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S27" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T27" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H28" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I28" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J28" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K28" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L28" t="n">
         <v>116.2263856895679</v>
@@ -33114,28 +33114,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N28" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O28" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P28" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R28" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S28" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T28" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H29" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I29" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J29" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K29" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L29" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M29" t="n">
-        <v>306.0203837136062</v>
+        <v>306.0203837136063</v>
       </c>
       <c r="N29" t="n">
-        <v>310.9721134565535</v>
+        <v>310.9721134565536</v>
       </c>
       <c r="O29" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P29" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R29" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S29" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T29" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H30" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I30" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J30" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5750813706081</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L30" t="n">
-        <v>202.4667790219723</v>
+        <v>202.4667790219724</v>
       </c>
       <c r="M30" t="n">
-        <v>223.6930837819809</v>
+        <v>223.693083781981</v>
       </c>
       <c r="N30" t="n">
         <v>172.7246341307099</v>
       </c>
       <c r="O30" t="n">
-        <v>221.8607284436912</v>
+        <v>221.8607284436913</v>
       </c>
       <c r="P30" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q30" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R30" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S30" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T30" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H31" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I31" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J31" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K31" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L31" t="n">
         <v>116.2263856895679</v>
@@ -33351,28 +33351,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N31" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O31" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P31" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R31" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S31" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T31" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H32" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I32" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J32" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K32" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L32" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M32" t="n">
-        <v>306.0203837136062</v>
+        <v>306.0203837136063</v>
       </c>
       <c r="N32" t="n">
-        <v>310.9721134565535</v>
+        <v>310.9721134565536</v>
       </c>
       <c r="O32" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P32" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R32" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S32" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T32" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H33" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I33" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5750813706081</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L33" t="n">
-        <v>202.4667790219723</v>
+        <v>162.2906512093864</v>
       </c>
       <c r="M33" t="n">
-        <v>223.6930837819809</v>
+        <v>223.693083781981</v>
       </c>
       <c r="N33" t="n">
-        <v>172.7246341307099</v>
+        <v>212.900761943296</v>
       </c>
       <c r="O33" t="n">
-        <v>221.8607284436912</v>
+        <v>221.8607284436913</v>
       </c>
       <c r="P33" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q33" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R33" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S33" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T33" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H34" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I34" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J34" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K34" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L34" t="n">
         <v>116.2263856895679</v>
@@ -33588,28 +33588,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O34" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P34" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R34" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S34" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T34" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H35" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I35" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J35" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K35" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L35" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M35" t="n">
-        <v>293.8901704116576</v>
+        <v>293.8901704116577</v>
       </c>
       <c r="N35" t="n">
-        <v>292.9570007809758</v>
+        <v>292.9570007809759</v>
       </c>
       <c r="O35" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P35" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q35" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R35" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S35" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T35" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H36" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I36" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5750813706081</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L36" t="n">
-        <v>202.0983169642591</v>
+        <v>142.7088560135203</v>
       </c>
       <c r="M36" t="n">
-        <v>146.2885101556644</v>
+        <v>205.6779711064033</v>
       </c>
       <c r="N36" t="n">
-        <v>194.8856492677182</v>
+        <v>194.8856492677183</v>
       </c>
       <c r="O36" t="n">
-        <v>206.1401816288293</v>
+        <v>206.1401816288294</v>
       </c>
       <c r="P36" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R36" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S36" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T36" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H37" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I37" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J37" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K37" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L37" t="n">
         <v>116.2263856895679</v>
@@ -33825,28 +33825,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N37" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O37" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P37" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R37" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S37" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T37" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H38" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I38" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J38" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K38" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L38" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M38" t="n">
-        <v>293.8901704116576</v>
+        <v>293.8901704116577</v>
       </c>
       <c r="N38" t="n">
-        <v>292.9570007809758</v>
+        <v>292.9570007809759</v>
       </c>
       <c r="O38" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P38" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q38" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R38" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S38" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T38" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H39" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I39" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J39" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5750813706081</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L39" t="n">
-        <v>202.0983169642591</v>
+        <v>142.7088560135203</v>
       </c>
       <c r="M39" t="n">
-        <v>205.6779711064032</v>
+        <v>205.6779711064033</v>
       </c>
       <c r="N39" t="n">
-        <v>194.8856492677182</v>
+        <v>194.8856492677183</v>
       </c>
       <c r="O39" t="n">
-        <v>146.7507206780905</v>
+        <v>206.1401816288294</v>
       </c>
       <c r="P39" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R39" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S39" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T39" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H40" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I40" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J40" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K40" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L40" t="n">
         <v>116.2263856895679</v>
@@ -34062,28 +34062,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N40" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O40" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P40" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R40" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S40" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T40" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H41" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I41" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J41" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K41" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L41" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M41" t="n">
-        <v>293.8901704116576</v>
+        <v>293.890170411658</v>
       </c>
       <c r="N41" t="n">
-        <v>292.9570007809758</v>
+        <v>292.9570007809762</v>
       </c>
       <c r="O41" t="n">
-        <v>293.6421486060716</v>
+        <v>293.6421486060717</v>
       </c>
       <c r="P41" t="n">
         <v>250.6167801840708</v>
       </c>
       <c r="Q41" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R41" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S41" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T41" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H42" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I42" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J42" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5750813706081</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L42" t="n">
-        <v>202.0983169642591</v>
+        <v>202.0983169642595</v>
       </c>
       <c r="M42" t="n">
-        <v>205.6779711064032</v>
+        <v>205.6779711064036</v>
       </c>
       <c r="N42" t="n">
-        <v>194.8856492677182</v>
+        <v>135.4961883169796</v>
       </c>
       <c r="O42" t="n">
-        <v>146.7507206780905</v>
+        <v>206.1401816288297</v>
       </c>
       <c r="P42" t="n">
-        <v>178.0627941633902</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q42" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R42" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S42" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T42" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H43" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I43" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J43" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K43" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L43" t="n">
         <v>116.2263856895679</v>
@@ -34299,28 +34299,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N43" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O43" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P43" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R43" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S43" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T43" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.742799733549399</v>
+        <v>1.7427997335494</v>
       </c>
       <c r="H44" t="n">
-        <v>17.84844777121279</v>
+        <v>17.8484477712128</v>
       </c>
       <c r="I44" t="n">
-        <v>67.18928672766329</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J44" t="n">
         <v>147.9179488853385</v>
@@ -34372,10 +34372,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>275.0268689520971</v>
+        <v>275.0268689520972</v>
       </c>
       <c r="M44" t="n">
-        <v>272.452120404167</v>
+        <v>281.7599571097094</v>
       </c>
       <c r="N44" t="n">
         <v>280.8267874790276</v>
@@ -34384,22 +34384,22 @@
         <v>281.5119353041234</v>
       </c>
       <c r="P44" t="n">
-        <v>250.6167801840708</v>
+        <v>241.3089434785281</v>
       </c>
       <c r="Q44" t="n">
-        <v>188.2027647263328</v>
+        <v>188.2027647263329</v>
       </c>
       <c r="R44" t="n">
         <v>109.4761437625726</v>
       </c>
       <c r="S44" t="n">
-        <v>39.71404892825698</v>
+        <v>39.71404892825699</v>
       </c>
       <c r="T44" t="n">
-        <v>7.6291058336125</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1394239786839519</v>
+        <v>0.139423978683952</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9324800649835308</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H45" t="n">
-        <v>9.005794311814627</v>
+        <v>9.005794311814631</v>
       </c>
       <c r="I45" t="n">
-        <v>32.10512504438911</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J45" t="n">
-        <v>88.09891701671158</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5750813706081</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L45" t="n">
-        <v>189.9681036623109</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>193.547757804455</v>
+        <v>186.0621303645143</v>
       </c>
       <c r="N45" t="n">
         <v>182.75543596577</v>
       </c>
       <c r="O45" t="n">
-        <v>179.1990037535639</v>
+        <v>194.0099683268811</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>178.0627941633903</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.0302623301784</v>
+        <v>119.0302623301785</v>
       </c>
       <c r="R45" t="n">
-        <v>57.89556052590731</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S45" t="n">
-        <v>17.32040822458443</v>
+        <v>17.32040822458444</v>
       </c>
       <c r="T45" t="n">
-        <v>3.758549033859055</v>
+        <v>3.758549033859056</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06134737269628494</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.781759962446647</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H46" t="n">
-        <v>6.950556757025649</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I46" t="n">
-        <v>23.50965414339554</v>
+        <v>23.50965414339555</v>
       </c>
       <c r="J46" t="n">
-        <v>55.27042934497795</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K46" t="n">
-        <v>90.82629381880135</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L46" t="n">
         <v>116.2263856895679</v>
@@ -34536,28 +34536,28 @@
         <v>122.5444275678867</v>
       </c>
       <c r="N46" t="n">
-        <v>119.6305949805856</v>
+        <v>119.6305949805857</v>
       </c>
       <c r="O46" t="n">
-        <v>110.4982172374588</v>
+        <v>110.4982172374589</v>
       </c>
       <c r="P46" t="n">
-        <v>94.55031400354717</v>
+        <v>94.5503140035472</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.46173649178243</v>
+        <v>65.46173649178245</v>
       </c>
       <c r="R46" t="n">
-        <v>35.15077067510105</v>
+        <v>35.15077067510106</v>
       </c>
       <c r="S46" t="n">
         <v>13.6239440728202</v>
       </c>
       <c r="T46" t="n">
-        <v>3.340247112272037</v>
+        <v>3.340247112272038</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04264145249708989</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L11" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M11" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="N11" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="O11" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="P11" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="M12" t="n">
-        <v>16.88811862989557</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="N12" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="O12" t="n">
-        <v>63.54393718438524</v>
+        <v>16.88811862989512</v>
       </c>
       <c r="P12" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L14" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M14" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="N14" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="O14" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="P14" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>12.73364239624914</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="M15" t="n">
-        <v>63.54393718438524</v>
+        <v>16.88811862989512</v>
       </c>
       <c r="N15" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="O15" t="n">
-        <v>4.154476233646427</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="P15" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L17" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M17" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N17" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O17" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P17" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>12.73364239624914</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L18" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="M18" t="n">
-        <v>63.54393718438524</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N18" t="n">
-        <v>4.154476233646427</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O18" t="n">
-        <v>63.54393718438524</v>
+        <v>4.154476233646083</v>
       </c>
       <c r="P18" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L20" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M20" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="N20" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="O20" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P20" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>12.73364239624914</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>15.79457990723312</v>
+        <v>28.5282223034823</v>
       </c>
       <c r="M21" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="N21" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="O21" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="P21" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L23" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M23" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="N23" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O23" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P23" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L24" t="n">
-        <v>63.91239924209816</v>
+        <v>23.73627142951219</v>
       </c>
       <c r="M24" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="N24" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O24" t="n">
-        <v>51.82199858290995</v>
+        <v>79.26448399924683</v>
       </c>
       <c r="P24" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L26" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M26" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="N26" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O26" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P26" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>12.73364239624914</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L27" t="n">
-        <v>63.91239924209816</v>
+        <v>63.91239924209825</v>
       </c>
       <c r="M27" t="n">
-        <v>81.55904985996256</v>
+        <v>41.3829220473766</v>
       </c>
       <c r="N27" t="n">
-        <v>41.38292204737659</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O27" t="n">
-        <v>79.26448399924675</v>
+        <v>79.26448399924683</v>
       </c>
       <c r="P27" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L29" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M29" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="N29" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O29" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P29" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>12.73364239624914</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L30" t="n">
-        <v>63.91239924209816</v>
+        <v>63.91239924209825</v>
       </c>
       <c r="M30" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="N30" t="n">
-        <v>41.38292204737659</v>
+        <v>41.38292204737662</v>
       </c>
       <c r="O30" t="n">
-        <v>79.26448399924675</v>
+        <v>79.26448399924683</v>
       </c>
       <c r="P30" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L32" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M32" t="n">
-        <v>75.67415048633345</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="N32" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O32" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P32" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>12.73364239624914</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L33" t="n">
-        <v>63.91239924209816</v>
+        <v>23.73627142951219</v>
       </c>
       <c r="M33" t="n">
-        <v>81.55904985996256</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="N33" t="n">
-        <v>41.38292204737659</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O33" t="n">
-        <v>79.26448399924675</v>
+        <v>79.26448399924683</v>
       </c>
       <c r="P33" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L35" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M35" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N35" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O35" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P35" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>12.73364239624914</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L36" t="n">
-        <v>63.54393718438487</v>
+        <v>4.154476233646076</v>
       </c>
       <c r="M36" t="n">
-        <v>4.154476233646083</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N36" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O36" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P36" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,22 +37543,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L38" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M38" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N38" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O38" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P38" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>12.73364239624914</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L39" t="n">
-        <v>63.54393718438487</v>
+        <v>4.154476233646076</v>
       </c>
       <c r="M39" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N39" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O39" t="n">
-        <v>4.154476233646083</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P39" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.600810561504034</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L41" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M41" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="N41" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="O41" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="P41" t="n">
-        <v>19.38378442880122</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>12.73364239624914</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L42" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="M42" t="n">
-        <v>63.54393718438487</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="N42" t="n">
-        <v>63.54393718438487</v>
+        <v>4.154476233646341</v>
       </c>
       <c r="O42" t="n">
-        <v>4.154476233646083</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="P42" t="n">
-        <v>44.08838674905996</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,19 +38020,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>39.26045398210982</v>
+        <v>39.26045398210994</v>
       </c>
       <c r="M44" t="n">
-        <v>42.10588717689428</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="N44" t="n">
-        <v>51.41372388243672</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="O44" t="n">
-        <v>51.41372388243672</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="P44" t="n">
-        <v>19.38378442880122</v>
+        <v>10.07594772325861</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>12.73364239624914</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L45" t="n">
-        <v>51.41372388243672</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.41372388243672</v>
+        <v>43.92809644249598</v>
       </c>
       <c r="N45" t="n">
-        <v>51.41372388243672</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="O45" t="n">
-        <v>36.60275930911943</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>44.08838674906002</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
